--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household_member-edit.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household_member-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="181">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -219,7 +219,22 @@
     <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today())) and floor( difference-in-months( . , today() ) div 12 ) &lt;= 100</t>
   </si>
   <si>
-    <t xml:space="preserve">Age must be between 0 and 100</t>
+    <t xml:space="preserve">You've chosen a future date.  Future date is not allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../dob_known = 'no'</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -228,10 +243,7 @@
     <t xml:space="preserve">age_years</t>
   </si>
   <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umri</t>
+    <t xml:space="preserve">Years</t>
   </si>
   <si>
     <t xml:space="preserve">../age_set = 'over5' and ../dob_known = 'no'</t>
@@ -240,7 +252,25 @@
     <t xml:space="preserve">. &gt;= 0 and . &lt;=100</t>
   </si>
   <si>
+    <t xml:space="preserve">Please enter a valid age.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Age in years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. &gt;= 1 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months must be between 1 and 11</t>
   </si>
   <si>
     <t xml:space="preserve">age_months</t>
@@ -288,9 +318,6 @@
     <t xml:space="preserve">floor(difference-in-months( ../dob_iso, today() ))</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
     <t xml:space="preserve">n_age</t>
   </si>
   <si>
@@ -315,7 +342,7 @@
     <t xml:space="preserve">${person_age_years} &gt;=10</t>
   </si>
   <si>
-    <t xml:space="preserve">Please make sure the number is not already in use by another person and is in the format 07XX XXX XXX</t>
+    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
     <t xml:space="preserve">Use the following format: +254712345678</t>
@@ -355,15 +382,6 @@
   </si>
   <si>
     <t xml:space="preserve">../relationship_to_primary_caregiver = 'other'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_screening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_**Please submit monthly screening form for ${display_name} after submitting this person registration.**_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_**Tafadhali wasilisha fomu ya uchunguzi wa kila mwezi kwa ${display_name} baada ya kuwasilisha usajili wa mtu huyu.**_</t>
   </si>
   <si>
     <t xml:space="preserve">meta</t>
@@ -954,10 +972,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L36" activeCellId="0" sqref="L36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="14:14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1667,7 +1685,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>66</v>
       </c>
@@ -1680,80 +1698,115 @@
       <c r="D21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
         <v>70</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>17</v>
+      <c r="D22" s="9" t="s">
+        <v>69</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9" t="n">
-        <v>0</v>
+      <c r="H22" s="9" t="s">
+        <v>75</v>
       </c>
+      <c r="I22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9" t="n">
-        <v>0</v>
+      <c r="L22" s="9" t="s">
+        <v>77</v>
       </c>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
-        <v>75</v>
+      <c r="H23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>17</v>
@@ -1764,19 +1817,21 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9" t="s">
-        <v>77</v>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>17</v>
@@ -1788,7 +1843,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -1799,7 +1854,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>17</v>
@@ -1811,7 +1866,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -1822,7 +1877,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>17</v>
@@ -1834,7 +1889,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -1845,7 +1900,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>17</v>
@@ -1857,7 +1912,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -1868,7 +1923,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>17</v>
@@ -1880,7 +1935,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -1888,160 +1943,160 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>91</v>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9" t="s">
+        <v>95</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="11" t="b">
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="11" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>92</v>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>101</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>93</v>
+      <c r="B33" s="9" t="s">
+        <v>102</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>94</v>
+      <c r="C33" s="9" t="s">
+        <v>103</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>95</v>
+      <c r="D33" s="9" t="s">
+        <v>104</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
-        <v>96</v>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>105</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="12" t="n">
+      <c r="G33" s="9"/>
+      <c r="H33" s="12" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>97</v>
+      <c r="I33" s="9" t="s">
+        <v>106</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9" t="s">
-        <v>98</v>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9" t="s">
+        <v>107</v>
       </c>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>92</v>
+      <c r="M33" s="9" t="s">
+        <v>107</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="9" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
-        <v>96</v>
+      <c r="B34" s="9" t="s">
+        <v>108</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="12" t="n">
+      <c r="C34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="12" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>97</v>
+      <c r="I34" s="9" t="s">
+        <v>106</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9" t="s">
-        <v>98</v>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9" t="s">
+        <v>107</v>
       </c>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>102</v>
+      <c r="M34" s="9" t="s">
+        <v>107</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>103</v>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>111</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>104</v>
+      <c r="B35" s="9" t="s">
+        <v>112</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>105</v>
+      <c r="C35" s="9" t="s">
+        <v>113</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="D35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2052,59 +2107,51 @@
       <c r="M35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>114</v>
+      <c r="B37" s="14" t="s">
+        <v>120</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="5"/>
@@ -2128,7 +2175,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -2138,7 +2185,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2163,7 +2210,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
@@ -2173,7 +2220,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -2194,10 +2241,12 @@
       <c r="AA39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="s">
-        <v>25</v>
+      <c r="A40" s="15" t="s">
+        <v>38</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
@@ -2205,7 +2254,9 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="5"/>
@@ -2225,7 +2276,7 @@
       <c r="AA40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="4"/>
@@ -2237,35 +2288,37 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="5"/>
@@ -29225,14 +29278,43 @@
       <c r="Z971" s="3"/>
       <c r="AA971" s="3"/>
     </row>
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="3"/>
+      <c r="B972" s="3"/>
+      <c r="C972" s="3"/>
+      <c r="D972" s="5"/>
+      <c r="E972" s="3"/>
+      <c r="F972" s="3"/>
+      <c r="G972" s="3"/>
+      <c r="H972" s="3"/>
+      <c r="I972" s="3"/>
+      <c r="J972" s="3"/>
+      <c r="K972" s="3"/>
+      <c r="L972" s="3"/>
+      <c r="M972" s="5"/>
+      <c r="N972" s="3"/>
+      <c r="O972" s="3"/>
+      <c r="P972" s="3"/>
+      <c r="Q972" s="3"/>
+      <c r="R972" s="3"/>
+      <c r="S972" s="3"/>
+      <c r="T972" s="3"/>
+      <c r="U972" s="3"/>
+      <c r="V972" s="3"/>
+      <c r="W972" s="3"/>
+      <c r="X972" s="3"/>
+      <c r="Y972" s="3"/>
+      <c r="Z972" s="3"/>
+      <c r="AA972" s="3"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A36:A971 A1:A12">
+  <conditionalFormatting sqref="A37:A972 A1:A12">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A971 A1:A8">
+  <conditionalFormatting sqref="A37:A972 A1:A8">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"end group"</formula>
     </cfRule>
@@ -29254,11 +29336,11 @@
   </sheetPr>
   <dimension ref="A1:W993"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="14:14 C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -29271,7 +29353,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
@@ -29304,16 +29386,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -29337,16 +29419,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -29370,16 +29452,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -29403,16 +29485,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -29436,16 +29518,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -29469,16 +29551,16 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -29502,16 +29584,16 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -29535,16 +29617,16 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -29568,16 +29650,16 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -29601,16 +29683,16 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -29634,16 +29716,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -29667,16 +29749,16 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -29703,13 +29785,13 @@
         <v>53</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29717,13 +29799,13 @@
         <v>53</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30723,7 +30805,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="14:14 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30740,25 +30822,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -30782,22 +30864,22 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C2" s="23" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-06-02  12-19</v>
+        <v>2023-10-19  10-40</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
